--- a/resources/experiment 1/predictions/single/RandomForestRegressor/SHE.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/SHE.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50.16586735178596</v>
+        <v>50.56265333333329</v>
       </c>
       <c r="B2" t="n">
-        <v>38.38841356084656</v>
+        <v>38.60328000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54135104573204</v>
+        <v>62.01183999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.08312370315087</v>
+        <v>41.3071052736318</v>
       </c>
       <c r="B3" t="n">
-        <v>32.11006222222222</v>
+        <v>32.29964000000002</v>
       </c>
       <c r="C3" t="n">
-        <v>49.43501313371812</v>
+        <v>49.74235999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.41466092379368</v>
+        <v>40.43436</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29095324372141</v>
+        <v>31.42411999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>49.2550463819144</v>
+        <v>49.18491999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49.22406639814148</v>
+        <v>49.43188059701485</v>
       </c>
       <c r="B5" t="n">
-        <v>38.71871390524289</v>
+        <v>38.77996000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>59.66955177777786</v>
+        <v>59.84312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52.67196322956641</v>
+        <v>53.08487044776115</v>
       </c>
       <c r="B6" t="n">
-        <v>41.88973403581603</v>
+        <v>41.72335999999996</v>
       </c>
       <c r="C6" t="n">
-        <v>62.77261566378063</v>
+        <v>63.67324000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42.57507327276308</v>
+        <v>42.81727900497507</v>
       </c>
       <c r="B7" t="n">
-        <v>33.28622055555556</v>
+        <v>33.37784</v>
       </c>
       <c r="C7" t="n">
-        <v>52.73482381192883</v>
+        <v>52.96084000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36.44741286069655</v>
+        <v>36.7521643781094</v>
       </c>
       <c r="B8" t="n">
-        <v>26.24526611111109</v>
+        <v>26.41379999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>46.39963577777782</v>
+        <v>46.46104000000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48.15051351006871</v>
+        <v>48.28533134328355</v>
       </c>
       <c r="B9" t="n">
-        <v>37.74848759829061</v>
+        <v>37.58751999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>58.76823692063486</v>
+        <v>58.76852000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.48493831519643</v>
+        <v>40.93035940298503</v>
       </c>
       <c r="B10" t="n">
-        <v>29.21181569889372</v>
+        <v>29.50067999999998</v>
       </c>
       <c r="C10" t="n">
-        <v>52.05799380952378</v>
+        <v>52.21960000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49.06691795630304</v>
+        <v>48.84619940298502</v>
       </c>
       <c r="B11" t="n">
-        <v>37.24661794805196</v>
+        <v>37.21567999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>62.67472573015873</v>
+        <v>62.38096000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>58.72270176229964</v>
+        <v>58.75082208955219</v>
       </c>
       <c r="B12" t="n">
-        <v>46.89387933333337</v>
+        <v>46.87836000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>70.75282238095245</v>
+        <v>71.43344000000006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>51.40760889585923</v>
+        <v>51.62112696517406</v>
       </c>
       <c r="B13" t="n">
-        <v>37.6784616186858</v>
+        <v>38.07543999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>65.41732792760949</v>
+        <v>65.47524000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>48.46038720761259</v>
+        <v>48.57698149253725</v>
       </c>
       <c r="B14" t="n">
-        <v>36.70993506349207</v>
+        <v>36.45076</v>
       </c>
       <c r="C14" t="n">
-        <v>60.79639100440303</v>
+        <v>61.31632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>57.32088727939656</v>
+        <v>57.31884955223876</v>
       </c>
       <c r="B15" t="n">
-        <v>45.7562376748436</v>
+        <v>45.61536000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>68.68058244444443</v>
+        <v>68.68144000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>51.96152493090101</v>
+        <v>51.97146646766164</v>
       </c>
       <c r="B16" t="n">
-        <v>41.27706787301589</v>
+        <v>41.13304</v>
       </c>
       <c r="C16" t="n">
-        <v>62.82694338335735</v>
+        <v>63.10092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58.97217257269211</v>
+        <v>58.02800298507461</v>
       </c>
       <c r="B17" t="n">
-        <v>45.85485940740742</v>
+        <v>45.58208</v>
       </c>
       <c r="C17" t="n">
-        <v>70.86487752380961</v>
+        <v>71.07015999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40.20594105498955</v>
+        <v>40.32096656716411</v>
       </c>
       <c r="B18" t="n">
-        <v>31.78017447489764</v>
+        <v>31.75771999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>48.96709434920642</v>
+        <v>48.97723999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>55.93310621864222</v>
+        <v>55.52253174129353</v>
       </c>
       <c r="B19" t="n">
-        <v>43.3515885117845</v>
+        <v>41.98799999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>69.76534675132277</v>
+        <v>69.72287999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>59.70213991708127</v>
+        <v>59.90227263681587</v>
       </c>
       <c r="B20" t="n">
-        <v>47.86572374074075</v>
+        <v>47.81455999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>72.03826939682544</v>
+        <v>72.52052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>57.04023803348327</v>
+        <v>57.25502467661688</v>
       </c>
       <c r="B21" t="n">
-        <v>45.21283123569022</v>
+        <v>45.47316000000003</v>
       </c>
       <c r="C21" t="n">
-        <v>68.53738520634924</v>
+        <v>68.69163999999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.9805138938376</v>
+        <v>44.1403824875621</v>
       </c>
       <c r="B22" t="n">
-        <v>31.8368876075036</v>
+        <v>32.06848000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>56.74667999999998</v>
+        <v>56.71619999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>60.93286992260917</v>
+        <v>60.75232716417901</v>
       </c>
       <c r="B23" t="n">
-        <v>49.0015942222222</v>
+        <v>48.71847999999998</v>
       </c>
       <c r="C23" t="n">
-        <v>74.39338666666686</v>
+        <v>73.62943999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>51.9621738861249</v>
+        <v>52.1078051741293</v>
       </c>
       <c r="B24" t="n">
-        <v>41.56542403174603</v>
+        <v>41.36491999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>63.48681003174599</v>
+        <v>63.79464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44.51773267628291</v>
+        <v>44.47600199004972</v>
       </c>
       <c r="B25" t="n">
-        <v>34.93594660846559</v>
+        <v>34.9794</v>
       </c>
       <c r="C25" t="n">
-        <v>53.81712946486847</v>
+        <v>53.84192000000004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56.99481757645637</v>
+        <v>56.63685233830841</v>
       </c>
       <c r="B26" t="n">
-        <v>45.13238294997596</v>
+        <v>44.93967999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>68.85603158730156</v>
+        <v>68.57860000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>57.8765182667614</v>
+        <v>57.75262089552232</v>
       </c>
       <c r="B27" t="n">
-        <v>41.71074445262145</v>
+        <v>41.67632</v>
       </c>
       <c r="C27" t="n">
-        <v>73.0406503386244</v>
+        <v>72.99664000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46.46979525925921</v>
+        <v>46.7171460696517</v>
       </c>
       <c r="B28" t="n">
-        <v>35.0337557460317</v>
+        <v>35.29108000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>57.66471307215009</v>
+        <v>57.81964000000004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>64.43107130364048</v>
+        <v>63.92500577114419</v>
       </c>
       <c r="B29" t="n">
-        <v>51.21995196825398</v>
+        <v>50.70416</v>
       </c>
       <c r="C29" t="n">
-        <v>77.50602207407407</v>
+        <v>77.20996000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>54.76000850848921</v>
+        <v>54.42415223880593</v>
       </c>
       <c r="B30" t="n">
-        <v>42.73639712698412</v>
+        <v>42.27075999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>67.00060247619037</v>
+        <v>66.62756000000003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>44.6477786221537</v>
+        <v>44.86150587064671</v>
       </c>
       <c r="B31" t="n">
-        <v>32.89165014407816</v>
+        <v>33.17872</v>
       </c>
       <c r="C31" t="n">
-        <v>56.91266053997845</v>
+        <v>56.87972000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>40.74879681255094</v>
+        <v>41.15252796019897</v>
       </c>
       <c r="B32" t="n">
-        <v>29.87922732275133</v>
+        <v>30.32908</v>
       </c>
       <c r="C32" t="n">
-        <v>53.01160244444441</v>
+        <v>52.93236000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48.25358503103514</v>
+        <v>48.26099761194025</v>
       </c>
       <c r="B33" t="n">
-        <v>36.66068617460318</v>
+        <v>36.35695999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>61.06852933244536</v>
+        <v>61.79128000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>60.42422755113316</v>
+        <v>60.1668302487562</v>
       </c>
       <c r="B34" t="n">
-        <v>45.99924395238099</v>
+        <v>45.99544</v>
       </c>
       <c r="C34" t="n">
-        <v>75.09679855026451</v>
+        <v>74.39164000000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56.33478193340169</v>
+        <v>56.48337850746268</v>
       </c>
       <c r="B35" t="n">
-        <v>44.5711977647907</v>
+        <v>44.77512000000002</v>
       </c>
       <c r="C35" t="n">
-        <v>68.00249880952381</v>
+        <v>68.05919999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>42.69025478125238</v>
+        <v>43.09989791044771</v>
       </c>
       <c r="B36" t="n">
-        <v>32.91742444444446</v>
+        <v>33.08704</v>
       </c>
       <c r="C36" t="n">
-        <v>52.72909161856663</v>
+        <v>53.06000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>60.52513483771622</v>
+        <v>60.49370427860691</v>
       </c>
       <c r="B37" t="n">
-        <v>48.75119399999996</v>
+        <v>48.53007999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>73.35864844444453</v>
+        <v>73.43843999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55.33116539068241</v>
+        <v>55.089719800995</v>
       </c>
       <c r="B38" t="n">
-        <v>40.71528659891307</v>
+        <v>41.77564000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>69.78058333074333</v>
+        <v>69.65475999999995</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>61.36132361999512</v>
+        <v>61.42935820895522</v>
       </c>
       <c r="B39" t="n">
-        <v>47.53660088888894</v>
+        <v>47.86783999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>75.47994940740735</v>
+        <v>75.19864000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>48.76261573092202</v>
+        <v>48.48193393034822</v>
       </c>
       <c r="B40" t="n">
-        <v>38.48747923184224</v>
+        <v>38.29979999999998</v>
       </c>
       <c r="C40" t="n">
-        <v>59.30568088888894</v>
+        <v>59.14079999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38.84355856053057</v>
+        <v>38.82352417910446</v>
       </c>
       <c r="B41" t="n">
-        <v>29.70679688888891</v>
+        <v>29.73148</v>
       </c>
       <c r="C41" t="n">
-        <v>48.23008511255411</v>
+        <v>48.24304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>52.57093680012628</v>
+        <v>52.47356318407954</v>
       </c>
       <c r="B42" t="n">
-        <v>39.80526042490844</v>
+        <v>39.39612</v>
       </c>
       <c r="C42" t="n">
-        <v>65.81389163997115</v>
+        <v>65.67983999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54.71395431753918</v>
+        <v>54.35771084577109</v>
       </c>
       <c r="B43" t="n">
-        <v>42.73922290476189</v>
+        <v>42.66812000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>67.00367380952383</v>
+        <v>66.6336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>38.55554623770023</v>
+        <v>38.44945472636809</v>
       </c>
       <c r="B44" t="n">
-        <v>28.75846888888888</v>
+        <v>28.65792</v>
       </c>
       <c r="C44" t="n">
-        <v>47.56726689754678</v>
+        <v>47.83596000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>59.11854888446645</v>
+        <v>58.87261432835821</v>
       </c>
       <c r="B45" t="n">
-        <v>43.24945728042325</v>
+        <v>43.45532</v>
       </c>
       <c r="C45" t="n">
-        <v>74.29093358201064</v>
+        <v>74.34975999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41.11069564081463</v>
+        <v>41.28756179104474</v>
       </c>
       <c r="B46" t="n">
-        <v>30.87737738480042</v>
+        <v>31.11196000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>51.44177025089724</v>
+        <v>51.36519999999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>48.30937371110054</v>
+        <v>48.47389412935318</v>
       </c>
       <c r="B47" t="n">
-        <v>35.01514442857143</v>
+        <v>35.05967999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>62.39930478306871</v>
+        <v>62.09367999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>58.77236619568828</v>
+        <v>58.76611203980097</v>
       </c>
       <c r="B48" t="n">
-        <v>46.03874074074078</v>
+        <v>46.63255999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>71.40965385185189</v>
+        <v>71.64476000000005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45.23866618997597</v>
+        <v>45.65999184079601</v>
       </c>
       <c r="B49" t="n">
-        <v>35.47169586291486</v>
+        <v>35.83552</v>
       </c>
       <c r="C49" t="n">
-        <v>54.53403742857139</v>
+        <v>55.16224000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>60.36301707652214</v>
+        <v>60.19116457711436</v>
       </c>
       <c r="B50" t="n">
-        <v>48.75985088888886</v>
+        <v>48.20715999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>73.27970400000008</v>
+        <v>72.81040000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40.69180481686803</v>
+        <v>40.83388955223881</v>
       </c>
       <c r="B51" t="n">
-        <v>31.60687716402117</v>
+        <v>31.69648</v>
       </c>
       <c r="C51" t="n">
-        <v>49.43742259403559</v>
+        <v>49.64039999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>37.85621779372968</v>
+        <v>37.82587562189052</v>
       </c>
       <c r="B52" t="n">
-        <v>27.72326085714288</v>
+        <v>27.91224</v>
       </c>
       <c r="C52" t="n">
-        <v>47.16886440404036</v>
+        <v>47.25008000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>61.40984187317365</v>
+        <v>61.07165333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>46.43930355555559</v>
+        <v>46.67443999999998</v>
       </c>
       <c r="C53" t="n">
-        <v>75.93772666666658</v>
+        <v>75.40363999999995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>57.27279563649996</v>
+        <v>56.89448537313426</v>
       </c>
       <c r="B54" t="n">
-        <v>45.78938300817691</v>
+        <v>45.20323999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>68.80367565079362</v>
+        <v>68.55907999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56.94457110368784</v>
+        <v>56.77654109452728</v>
       </c>
       <c r="B55" t="n">
-        <v>45.15606939442036</v>
+        <v>44.93088000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>68.60714501587303</v>
+        <v>68.71423999999996</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>44.76898395594412</v>
+        <v>44.92135522388055</v>
       </c>
       <c r="B56" t="n">
-        <v>33.15974933938826</v>
+        <v>33.14876000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>56.90544853439155</v>
+        <v>57.14939999999998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40.77371491813414</v>
+        <v>40.99098427860691</v>
       </c>
       <c r="B57" t="n">
-        <v>29.87044954497354</v>
+        <v>29.72523999999997</v>
       </c>
       <c r="C57" t="n">
-        <v>52.23808928218077</v>
+        <v>52.02400000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>60.48094781726284</v>
+        <v>60.62627522388054</v>
       </c>
       <c r="B58" t="n">
-        <v>48.41850644444442</v>
+        <v>48.42424</v>
       </c>
       <c r="C58" t="n">
-        <v>73.53927777777793</v>
+        <v>73.19091999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>45.22856779086042</v>
+        <v>45.12865930348252</v>
       </c>
       <c r="B59" t="n">
-        <v>33.53814389225592</v>
+        <v>33.34359999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>57.38514233074331</v>
+        <v>57.38927999999998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60.73541241017135</v>
+        <v>60.36351024875613</v>
       </c>
       <c r="B60" t="n">
-        <v>49.25470199999995</v>
+        <v>48.39431999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>74.26102400000016</v>
+        <v>73.14920000000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51.75114471817437</v>
+        <v>51.74470646766164</v>
       </c>
       <c r="B61" t="n">
-        <v>38.48912634232274</v>
+        <v>38.35880000000002</v>
       </c>
       <c r="C61" t="n">
-        <v>65.63124410110261</v>
+        <v>65.46196000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>49.08385855805618</v>
+        <v>48.90288199004971</v>
       </c>
       <c r="B62" t="n">
-        <v>37.2359712813853</v>
+        <v>36.95756</v>
       </c>
       <c r="C62" t="n">
-        <v>61.24002952088654</v>
+        <v>61.5536</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>58.22485737234463</v>
+        <v>58.32740895522385</v>
       </c>
       <c r="B63" t="n">
-        <v>42.37693202597399</v>
+        <v>42.94619999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>73.89340758730157</v>
+        <v>73.46440000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>60.77676321171921</v>
+        <v>60.55022805970143</v>
       </c>
       <c r="B64" t="n">
-        <v>49.21028866666662</v>
+        <v>48.81903999999998</v>
       </c>
       <c r="C64" t="n">
-        <v>74.27282400000017</v>
+        <v>73.36716000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>36.86648889489061</v>
+        <v>36.90856796019899</v>
       </c>
       <c r="B65" t="n">
-        <v>27.021367015873</v>
+        <v>27.07876</v>
       </c>
       <c r="C65" t="n">
-        <v>47.92549843578634</v>
+        <v>47.74664000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>57.22787084371787</v>
+        <v>57.15411482587059</v>
       </c>
       <c r="B66" t="n">
-        <v>45.44802666666669</v>
+        <v>44.62803999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>70.41169876190476</v>
+        <v>70.73635999999993</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>53.37265763865854</v>
+        <v>53.4758917412935</v>
       </c>
       <c r="B67" t="n">
-        <v>41.35373644925446</v>
+        <v>41.26832000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>66.20085841269837</v>
+        <v>66.5082</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>52.6098421678906</v>
+        <v>52.88784955223872</v>
       </c>
       <c r="B68" t="n">
-        <v>41.71006038624337</v>
+        <v>41.89368</v>
       </c>
       <c r="C68" t="n">
-        <v>64.18928265608466</v>
+        <v>64.55803999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>47.04707289457464</v>
+        <v>47.26312378109449</v>
       </c>
       <c r="B69" t="n">
-        <v>34.44043445502648</v>
+        <v>34.49464</v>
       </c>
       <c r="C69" t="n">
-        <v>60.80754987212787</v>
+        <v>61.40191999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>48.8072375732448</v>
+        <v>48.92185432835813</v>
       </c>
       <c r="B70" t="n">
-        <v>38.50360256517558</v>
+        <v>38.66443999999998</v>
       </c>
       <c r="C70" t="n">
-        <v>59.46091587301591</v>
+        <v>59.66112000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>39.59619993235835</v>
+        <v>39.76989691542285</v>
       </c>
       <c r="B71" t="n">
-        <v>30.58655957868277</v>
+        <v>30.62076</v>
       </c>
       <c r="C71" t="n">
-        <v>48.58032494372292</v>
+        <v>48.87720000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>47.34056556863821</v>
+        <v>47.43955621890543</v>
       </c>
       <c r="B72" t="n">
-        <v>36.51852657142854</v>
+        <v>36.52628000000002</v>
       </c>
       <c r="C72" t="n">
-        <v>58.08260541269847</v>
+        <v>58.07804000000001</v>
       </c>
     </row>
   </sheetData>
